--- a/fhir/CodeSystem-ehealth.sundhed.dk-action-selection-behavior-supplement.xlsx
+++ b/fhir/CodeSystem-ehealth.sundhed.dk-action-selection-behavior-supplement.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.4.1</t>
+    <t>3.5.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-06T12:26:33+00:00</t>
+    <t>2025-04-23T06:28:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/CodeSystem-ehealth.sundhed.dk-action-selection-behavior-supplement.xlsx
+++ b/fhir/CodeSystem-ehealth.sundhed.dk-action-selection-behavior-supplement.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.5.0</t>
+    <t>3.5.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-23T06:28:42+00:00</t>
+    <t>2025-04-29T12:22:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/CodeSystem-ehealth.sundhed.dk-action-selection-behavior-supplement.xlsx
+++ b/fhir/CodeSystem-ehealth.sundhed.dk-action-selection-behavior-supplement.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.5.1</t>
+    <t>4.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-29T12:22:27+00:00</t>
+    <t>2025-08-08T06:54:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/CodeSystem-ehealth.sundhed.dk-action-selection-behavior-supplement.xlsx
+++ b/fhir/CodeSystem-ehealth.sundhed.dk-action-selection-behavior-supplement.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>4.0.0</t>
+    <t>4.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-08T06:54:32+00:00</t>
+    <t>2025-08-11T07:16:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/CodeSystem-ehealth.sundhed.dk-action-selection-behavior-supplement.xlsx
+++ b/fhir/CodeSystem-ehealth.sundhed.dk-action-selection-behavior-supplement.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>4.0.1</t>
+    <t>5.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-11T07:16:04+00:00</t>
+    <t>2025-08-11T11:48:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/CodeSystem-ehealth.sundhed.dk-action-selection-behavior-supplement.xlsx
+++ b/fhir/CodeSystem-ehealth.sundhed.dk-action-selection-behavior-supplement.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>5.0.0</t>
+    <t>5.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-11T11:48:43+00:00</t>
+    <t>2025-08-12T13:00:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/CodeSystem-ehealth.sundhed.dk-action-selection-behavior-supplement.xlsx
+++ b/fhir/CodeSystem-ehealth.sundhed.dk-action-selection-behavior-supplement.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>5.0.1</t>
+    <t>6.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-12T13:00:26+00:00</t>
+    <t>2025-10-23T10:34:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
